--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -330,16 +330,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,12 +628,12 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -670,10 +670,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1">
         <f>SUMPRODUCT(B4:B99,(C4:C99)/100)</f>
         <v>1902.4</v>
@@ -820,10 +820,10 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -934,7 +934,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1050,7 +1050,7 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="2">
@@ -1151,7 +1151,7 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="2">
@@ -1240,7 +1240,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="2">
@@ -1341,7 +1341,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="2">
@@ -1418,7 +1418,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="2">
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="2">
@@ -1530,7 +1530,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="2">
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B11" s="2">
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="2">
